--- a/biology/Botanique/Touradon/Touradon.xlsx
+++ b/biology/Botanique/Touradon/Touradon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « touradon » est donné en botanique et en géomorphologie à des micro-formes en buttes ou en mottes plus ou moins arrondies, de 40 centimètres à plus d'un mètre de haut. On a comparé les touradons à des « donjons végétaux en miniature »[1], mais on a parfois tendance à les confondre avec les mottureaux. 
-On les observe dans certaines tourbières et dans des zones humides paratourbeuses. On explique leur existence par le développement de certaines plantes cespiteuses sur leurs anciennes racines (tourbe racinaire) et feuilles mortes[2], leur décomposition étant ralentie par l'acidité du milieu. C'est fréquemment le cas des touffes de Molinie, de Laîche paniculée et d'Osmonde royale. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « touradon » est donné en botanique et en géomorphologie à des micro-formes en buttes ou en mottes plus ou moins arrondies, de 40 centimètres à plus d'un mètre de haut. On a comparé les touradons à des « donjons végétaux en miniature », mais on a parfois tendance à les confondre avec les mottureaux. 
+On les observe dans certaines tourbières et dans des zones humides paratourbeuses. On explique leur existence par le développement de certaines plantes cespiteuses sur leurs anciennes racines (tourbe racinaire) et feuilles mortes, leur décomposition étant ralentie par l'acidité du milieu. C'est fréquemment le cas des touffes de Molinie, de Laîche paniculée et d'Osmonde royale. 
 On les observe aussi dans les schorres (touradons de Spartine, Carex, etc.).
-Il existe des touradons de Carex auprès du Lac de Grand-Lieu, qui peuvent se détacher de la rive et flotter. Ils sont alors nommés « bloute » par les pêcheurs locaux[3].
+Il existe des touradons de Carex auprès du Lac de Grand-Lieu, qui peuvent se détacher de la rive et flotter. Ils sont alors nommés « bloute » par les pêcheurs locaux.
 Ce nom regroupe plusieurs espèces appartenant aux familles des Graminées, des Campanulacées et des Cyperacées.
 Il existe deux appellations en anglais :
 Tussock
@@ -518,7 +530,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il ne faut pas confondre les touradons :
 avec les mottureaux, type de micro-relief ou de micro-modelé où alternent des monticules végétalisés et des dépressions ;
@@ -553,15 +567,17 @@
           <t>Espèces formant des touradons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>famille des Poaceae
 genre Cymbopogon
-Cymbopogon schaenanthus[4]
+Cymbopogon schaenanthus
 genre Dichanthelium
 Dichanthelium cynodon
 genre Molinia
-Molinia caerulea[2]
+Molinia caerulea
 genre Nassella
 Nassella cernua
 Nassella chilensis
@@ -571,9 +587,9 @@
 Nassella neesiana — Stipe de Nees. ou tussack uruguayenne.
 Nassella pulchra
 Nassella tenuissima
-Nassella trichotoma — Stipe à feuilles dentées[5]
+Nassella trichotoma — Stipe à feuilles dentées
 Nassella tenuissima
-Nassella viridula — Stipe verte[6]
+Nassella viridula — Stipe verte
 genre Poa
 Poa flabellata
 genre Puccinellia
@@ -587,9 +603,9 @@
 genre Carex
 Carex aquatilis
 Carex diandra
-Carex elata — le sommet du touradon est généralement exondé, mais la plante supporte une submersion totale saisonnière. Sur les touradons formés par la Laîche élevée poussent fréquemment des espèces telles que Lythrum salicaria, Lysimachia vulgaris, Lycopus europaeus, Solanum dulcamara et Galium palustre[7]. L'espèce Campylium stellatum occupe uniquement les mottes de Carex elata atteignant alors un recouvrement de 80 % de chaque petit touradon[8].
-Carex paniculata[9]
-Carex paradoxa[9]
+Carex elata — le sommet du touradon est généralement exondé, mais la plante supporte une submersion totale saisonnière. Sur les touradons formés par la Laîche élevée poussent fréquemment des espèces telles que Lythrum salicaria, Lysimachia vulgaris, Lycopus europaeus, Solanum dulcamara et Galium palustre. L'espèce Campylium stellatum occupe uniquement les mottes de Carex elata atteignant alors un recouvrement de 80 % de chaque petit touradon.
+Carex paniculata
+Carex paradoxa
 genre Eriophorum
 Eriophorum vaginatum</t>
         </is>
